--- a/Model_rez_283/Hist_IR_Ridge_283.xlsx
+++ b/Model_rez_283/Hist_IR_Ridge_283.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>PredictReturn</t>
   </si>
@@ -28,160 +28,112 @@
     <t>Date</t>
   </si>
   <si>
-    <t>119.07170755</t>
-  </si>
-  <si>
-    <t>167.384959006</t>
-  </si>
-  <si>
-    <t>136.753310533</t>
-  </si>
-  <si>
-    <t>392.870143748</t>
-  </si>
-  <si>
-    <t>189.18828409</t>
-  </si>
-  <si>
-    <t>386.429183158</t>
-  </si>
-  <si>
-    <t>138.762379288</t>
-  </si>
-  <si>
-    <t>343.267764283</t>
-  </si>
-  <si>
-    <t>274.517806119</t>
-  </si>
-  <si>
-    <t>98.0459465343</t>
-  </si>
-  <si>
-    <t>144.265786203</t>
-  </si>
-  <si>
-    <t>129.591574967</t>
-  </si>
-  <si>
-    <t>149.880932596</t>
+    <t>152.423599535</t>
+  </si>
+  <si>
+    <t>297.759845863</t>
+  </si>
+  <si>
+    <t>159.393058582</t>
+  </si>
+  <si>
+    <t>408.850724353</t>
+  </si>
+  <si>
+    <t>134.490636906</t>
+  </si>
+  <si>
+    <t>168.595038086</t>
+  </si>
+  <si>
+    <t>125.62095698</t>
+  </si>
+  <si>
+    <t>134.309655742</t>
+  </si>
+  <si>
+    <t>302.662610624</t>
+  </si>
+  <si>
+    <t>156.9498741</t>
+  </si>
+  <si>
+    <t>302.07535218</t>
+  </si>
+  <si>
+    <t>175.9833846</t>
+  </si>
+  <si>
+    <t>395.83810827</t>
+  </si>
+  <si>
+    <t>145.772226</t>
+  </si>
+  <si>
+    <t>175.7931444</t>
   </si>
   <si>
     <t>132.7725567</t>
   </si>
   <si>
-    <t>175.7931444</t>
-  </si>
-  <si>
-    <t>151.6769055</t>
-  </si>
-  <si>
-    <t>415.65393765</t>
-  </si>
-  <si>
-    <t>162.7670664</t>
-  </si>
-  <si>
-    <t>423.74986389</t>
-  </si>
-  <si>
-    <t>150.6402441</t>
-  </si>
-  <si>
-    <t>351.747072</t>
-  </si>
-  <si>
-    <t>302.07535218</t>
-  </si>
-  <si>
-    <t>111.6194211</t>
-  </si>
-  <si>
-    <t>160.1497476</t>
-  </si>
-  <si>
-    <t>145.772226</t>
-  </si>
-  <si>
-    <t>156.9498741</t>
-  </si>
-  <si>
-    <t>13.7008491498</t>
-  </si>
-  <si>
-    <t>8.40818539352</t>
-  </si>
-  <si>
-    <t>14.9235949671</t>
-  </si>
-  <si>
-    <t>22.7837939017</t>
-  </si>
-  <si>
-    <t>-26.4212176901</t>
-  </si>
-  <si>
-    <t>37.3206807315</t>
-  </si>
-  <si>
-    <t>11.8778648122</t>
-  </si>
-  <si>
-    <t>8.47930771747</t>
-  </si>
-  <si>
-    <t>27.5575460607</t>
-  </si>
-  <si>
-    <t>13.5734745657</t>
-  </si>
-  <si>
-    <t>15.8839613973</t>
-  </si>
-  <si>
-    <t>16.1806510326</t>
-  </si>
-  <si>
-    <t>7.06894150406</t>
+    <t>150.73560198</t>
+  </si>
+  <si>
+    <t>293.0557815</t>
+  </si>
+  <si>
+    <t>4.52627456466</t>
+  </si>
+  <si>
+    <t>4.31550631724</t>
+  </si>
+  <si>
+    <t>16.5903260184</t>
+  </si>
+  <si>
+    <t>-13.0126160828</t>
+  </si>
+  <si>
+    <t>11.2815890937</t>
+  </si>
+  <si>
+    <t>7.19810631399</t>
+  </si>
+  <si>
+    <t>7.15159971951</t>
+  </si>
+  <si>
+    <t>16.4259462381</t>
+  </si>
+  <si>
+    <t>-9.60682912407</t>
+  </si>
+  <si>
+    <t>2017-05-05</t>
+  </si>
+  <si>
+    <t>2017-05-18</t>
+  </si>
+  <si>
+    <t>2017-04-10</t>
+  </si>
+  <si>
+    <t>2017-05-25</t>
+  </si>
+  <si>
+    <t>2017-05-08</t>
+  </si>
+  <si>
+    <t>2017-05-06</t>
   </si>
   <si>
     <t>2017-05-10</t>
   </si>
   <si>
-    <t>2017-05-06</t>
-  </si>
-  <si>
-    <t>2017-04-14</t>
-  </si>
-  <si>
-    <t>2017-05-23</t>
-  </si>
-  <si>
-    <t>2017-05-29</t>
-  </si>
-  <si>
-    <t>2017-05-19</t>
-  </si>
-  <si>
-    <t>2017-04-16</t>
-  </si>
-  <si>
-    <t>2017-05-20</t>
-  </si>
-  <si>
-    <t>2017-05-18</t>
-  </si>
-  <si>
-    <t>2017-05-09</t>
-  </si>
-  <si>
-    <t>2017-04-18</t>
-  </si>
-  <si>
-    <t>2017-05-08</t>
-  </si>
-  <si>
-    <t>2017-05-05</t>
+    <t>2017-04-11</t>
+  </si>
+  <si>
+    <t>2017-05-24</t>
   </si>
 </sst>
 </file>
@@ -539,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,13 +519,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -584,13 +536,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -601,13 +553,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -618,13 +570,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -635,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -652,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -669,13 +621,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -686,13 +638,13 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -703,81 +655,13 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
         <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
